--- a/Analysis Codes/Experimental Data Reorganized.xlsx
+++ b/Analysis Codes/Experimental Data Reorganized.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\J lab\Final Project\Analysis Codes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ME201617\ME Spring 2017\Final project\Analysis Codes\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="30">
   <si>
     <t>RPM</t>
   </si>
@@ -100,6 +100,21 @@
   </si>
   <si>
     <t>TRIAL 4</t>
+  </si>
+  <si>
+    <t>&lt;-Water Density</t>
+  </si>
+  <si>
+    <t>Accuracies</t>
+  </si>
+  <si>
+    <t>Error in Pdyn</t>
+  </si>
+  <si>
+    <t>Error ratio</t>
+  </si>
+  <si>
+    <t>Error</t>
   </si>
 </sst>
 </file>
@@ -1007,10 +1022,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:V45"/>
+  <dimension ref="A1:AB45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9:V15"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Z17" sqref="Z17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1074,9 +1089,7 @@
       <c r="M2" s="15"/>
       <c r="N2" s="15"/>
       <c r="O2" s="16"/>
-      <c r="P2" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
@@ -1122,13 +1135,6 @@
       </c>
       <c r="O3" s="20" t="s">
         <v>20</v>
-      </c>
-      <c r="P3" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q3">
-        <f xml:space="preserve"> 1.2093</f>
-        <v>1.2093</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
@@ -1734,7 +1740,7 @@
       </c>
     </row>
     <row r="16" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B17" s="32" t="s">
         <v>3</v>
       </c>
@@ -1754,7 +1760,7 @@
       <c r="N17" s="88"/>
       <c r="O17" s="89"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B18" s="35" t="s">
         <v>15</v>
       </c>
@@ -1794,7 +1800,7 @@
       </c>
       <c r="O18" s="93"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B19" s="39">
         <v>1.65</v>
       </c>
@@ -1842,7 +1848,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B20" s="39">
         <v>2</v>
       </c>
@@ -1871,8 +1877,11 @@
         <v>3.17</v>
       </c>
       <c r="O20" s="70"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="T20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B21" s="39">
         <v>2.4500000000000002</v>
       </c>
@@ -1905,8 +1914,20 @@
         <v>1.65</v>
       </c>
       <c r="O21" s="70"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S21" t="s">
+        <v>14</v>
+      </c>
+      <c r="T21">
+        <v>1.2093</v>
+      </c>
+      <c r="U21">
+        <v>1000</v>
+      </c>
+      <c r="V21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B22" s="39">
         <v>3</v>
       </c>
@@ -1951,8 +1972,11 @@
       <c r="O22" s="45" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B23" s="43">
         <v>1.65</v>
       </c>
@@ -1987,8 +2011,26 @@
         <v>21</v>
       </c>
       <c r="O23" s="82"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="S23">
+        <v>0.05</v>
+      </c>
+      <c r="T23">
+        <v>0.05</v>
+      </c>
+      <c r="U23">
+        <v>0.05</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B24" s="43">
         <v>2</v>
       </c>
@@ -2017,8 +2059,41 @@
         <v>21</v>
       </c>
       <c r="O24" s="25"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R24">
+        <v>12.009733090745195</v>
+      </c>
+      <c r="S24">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="T24">
+        <v>3.0303030303030307E-2</v>
+      </c>
+      <c r="U24">
+        <v>3.8461538461538464E-2</v>
+      </c>
+      <c r="V24">
+        <v>9.1827614554637312E-4</v>
+      </c>
+      <c r="W24">
+        <v>1.4792924408284025E-3</v>
+      </c>
+      <c r="X24">
+        <v>169033.71499640998</v>
+      </c>
+      <c r="Y24">
+        <v>104928.18304644</v>
+      </c>
+      <c r="Z24">
+        <v>17.619281945775914</v>
+      </c>
+      <c r="AA24">
+        <v>0.1010153658876122</v>
+      </c>
+      <c r="AB24">
+        <v>1.2131675823741896</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B25" s="43">
         <v>2.4500000000000002</v>
       </c>
@@ -2063,8 +2138,41 @@
       <c r="O25" s="73" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R25">
+        <v>16.366507419737342</v>
+      </c>
+      <c r="S25">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="T25">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="U25">
+        <v>3.7037037037037035E-2</v>
+      </c>
+      <c r="V25">
+        <v>6.2500250000000011E-4</v>
+      </c>
+      <c r="W25">
+        <v>1.3717446124828531E-3</v>
+      </c>
+      <c r="X25">
+        <v>248350.72910400003</v>
+      </c>
+      <c r="Y25">
+        <v>113154.80094801002</v>
+      </c>
+      <c r="Z25">
+        <v>17.619288156558007</v>
+      </c>
+      <c r="AA25">
+        <v>5.4392908497546695E-2</v>
+      </c>
+      <c r="AB25">
+        <v>0.8902219405061923</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B26" s="43">
         <v>3</v>
       </c>
@@ -2097,8 +2205,41 @@
         <v>21.92</v>
       </c>
       <c r="O26" s="74"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R26">
+        <v>19.786142659186879</v>
+      </c>
+      <c r="S26">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="T26">
+        <v>2.0408163265306121E-2</v>
+      </c>
+      <c r="U26">
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="V26">
+        <v>4.1649562786339015E-4</v>
+      </c>
+      <c r="W26">
+        <v>1.1111136111111111E-3</v>
+      </c>
+      <c r="X26">
+        <v>372681.31286169006</v>
+      </c>
+      <c r="Y26">
+        <v>139697.28512099996</v>
+      </c>
+      <c r="Z26">
+        <v>17.619298860241145</v>
+      </c>
+      <c r="AA26">
+        <v>3.7216223159722124E-2</v>
+      </c>
+      <c r="AB26">
+        <v>0.73636550067439666</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B27" s="47">
         <v>1.65</v>
       </c>
@@ -2133,8 +2274,41 @@
         <v>13.91</v>
       </c>
       <c r="O27" s="84"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R27">
+        <v>24.019466181490394</v>
+      </c>
+      <c r="S27">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="T27">
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="U27">
+        <v>3.125E-2</v>
+      </c>
+      <c r="V27">
+        <v>2.7778027777777776E-4</v>
+      </c>
+      <c r="W27">
+        <v>9.7656499999999999E-4</v>
+      </c>
+      <c r="X27">
+        <v>558789.14048399986</v>
+      </c>
+      <c r="Y27">
+        <v>158944.46662656005</v>
+      </c>
+      <c r="Z27">
+        <v>17.619313429132752</v>
+      </c>
+      <c r="AA27">
+        <v>2.5253886597221151E-2</v>
+      </c>
+      <c r="AB27">
+        <v>0.60658487507314696</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B28" s="47">
         <v>2</v>
       </c>
@@ -2176,7 +2350,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B29" s="47">
         <v>2.4500000000000002</v>
       </c>
@@ -2210,7 +2384,7 @@
       </c>
       <c r="O29" s="28"/>
     </row>
-    <row r="30" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="51">
         <v>3</v>
       </c>
@@ -2244,7 +2418,7 @@
       </c>
       <c r="O30" s="31"/>
     </row>
-    <row r="31" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -2252,7 +2426,7 @@
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B32" s="54" t="s">
         <v>1</v>
       </c>

--- a/Analysis Codes/Experimental Data Reorganized.xlsx
+++ b/Analysis Codes/Experimental Data Reorganized.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="34">
   <si>
     <t>RPM</t>
   </si>
@@ -115,6 +115,18 @@
   </si>
   <si>
     <t>Error</t>
+  </si>
+  <si>
+    <t>v1</t>
+  </si>
+  <si>
+    <t>v2</t>
+  </si>
+  <si>
+    <t>v3</t>
+  </si>
+  <si>
+    <t>v4</t>
   </si>
 </sst>
 </file>
@@ -1025,7 +1037,7 @@
   <dimension ref="A1:AB45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Z17" sqref="Z17"/>
+      <selection activeCell="AC41" sqref="AC41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2425,6 +2437,26 @@
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
+      <c r="S31">
+        <f>1.846*10^-5</f>
+        <v>1.8460000000000003E-5</v>
+      </c>
+      <c r="T31">
+        <f>T21</f>
+        <v>1.2093</v>
+      </c>
+      <c r="U31">
+        <f>0.028956*2</f>
+        <v>5.7911999999999998E-2</v>
+      </c>
+      <c r="V31">
+        <f>0.04191*2</f>
+        <v>8.3820000000000006E-2</v>
+      </c>
+      <c r="W31">
+        <f>0.0634135*2</f>
+        <v>0.126827</v>
+      </c>
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B32" s="54" t="s">
@@ -2445,8 +2477,23 @@
       <c r="M32" s="95"/>
       <c r="N32" s="95"/>
       <c r="O32" s="96"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="T32" t="s">
+        <v>30</v>
+      </c>
+      <c r="U32">
+        <f>$T$31*R24*$U$31/$S$31</f>
+        <v>45562.156910350444</v>
+      </c>
+      <c r="V32">
+        <f>$T$31*R24*$V$31/$S$31</f>
+        <v>65945.227107086175</v>
+      </c>
+      <c r="W32">
+        <f>$T$31*R24*$W$31/$S$31</f>
+        <v>99780.903344194914</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B33" s="57" t="s">
         <v>15</v>
       </c>
@@ -2485,8 +2532,23 @@
         <v>6</v>
       </c>
       <c r="O33" s="100"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="T33" t="s">
+        <v>31</v>
+      </c>
+      <c r="U33">
+        <f t="shared" ref="U33:U35" si="14">$T$31*R25*$U$31/$S$31</f>
+        <v>62090.753682704686</v>
+      </c>
+      <c r="V33">
+        <f t="shared" ref="V33:V35" si="15">$T$31*R25*$V$31/$S$31</f>
+        <v>89868.196119704167</v>
+      </c>
+      <c r="W33">
+        <f t="shared" ref="W33:W35" si="16">$T$31*R25*$W$31/$S$31</f>
+        <v>135978.45036117535</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B34" s="39">
         <v>1.65</v>
       </c>
@@ -2494,7 +2556,7 @@
         <v>1.3</v>
       </c>
       <c r="D34" s="40">
-        <f t="shared" ref="D34:D41" si="14">(B34-C34)*0.0254</f>
+        <f t="shared" ref="D34:D41" si="17">(B34-C34)*0.0254</f>
         <v>8.8899999999999969E-3</v>
       </c>
       <c r="E34" s="40">
@@ -2533,8 +2595,23 @@
       <c r="O34" s="69" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="T34" t="s">
+        <v>32</v>
+      </c>
+      <c r="U34">
+        <f t="shared" si="14"/>
+        <v>75064.060930975596</v>
+      </c>
+      <c r="V34">
+        <f t="shared" si="15"/>
+        <v>108645.3513474647</v>
+      </c>
+      <c r="W34">
+        <f t="shared" si="16"/>
+        <v>164389.93050996069</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B35" s="39">
         <v>2</v>
       </c>
@@ -2542,11 +2619,11 @@
         <v>1.35</v>
       </c>
       <c r="D35" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.6509999999999997E-2</v>
       </c>
       <c r="E35" s="40">
-        <f t="shared" ref="E35:E45" si="15">((2*9.81*1000*D35)/1.2093)^0.5</f>
+        <f t="shared" ref="E35:E45" si="18">((2*9.81*1000*D35)/1.2093)^0.5</f>
         <v>16.366507419737342</v>
       </c>
       <c r="F35" s="40">
@@ -2567,8 +2644,23 @@
         <v>3.14</v>
       </c>
       <c r="O35" s="70"/>
-    </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="T35" t="s">
+        <v>33</v>
+      </c>
+      <c r="U35">
+        <f t="shared" si="14"/>
+        <v>91124.313820700903</v>
+      </c>
+      <c r="V35">
+        <f t="shared" si="15"/>
+        <v>131890.45421417238</v>
+      </c>
+      <c r="W35">
+        <f t="shared" si="16"/>
+        <v>199561.80668838986</v>
+      </c>
+    </row>
+    <row r="36" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B36" s="39">
         <v>2.4500000000000002</v>
       </c>
@@ -2576,11 +2668,11 @@
         <v>1.5</v>
       </c>
       <c r="D36" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>2.4130000000000002E-2</v>
       </c>
       <c r="E36" s="40">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>19.786142659186879</v>
       </c>
       <c r="F36" s="40">
@@ -2601,8 +2693,12 @@
         <v>4.3499999999999996</v>
       </c>
       <c r="O36" s="70"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="S36">
+        <f>12*0.0254</f>
+        <v>0.30479999999999996</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B37" s="39">
         <v>3</v>
       </c>
@@ -2610,11 +2706,11 @@
         <v>1.6</v>
       </c>
       <c r="D37" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>3.5559999999999994E-2</v>
       </c>
       <c r="E37" s="40">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>24.019466181490394</v>
       </c>
       <c r="F37" s="40">
@@ -2647,8 +2743,20 @@
       <c r="O37" s="45" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="U37">
+        <f>U32*$S$31/($S$36*$T$31)</f>
+        <v>2.2818492872415872</v>
+      </c>
+      <c r="V37">
+        <f>V32*$S$31/($S$36*$T$31)</f>
+        <v>3.3026765999549288</v>
+      </c>
+      <c r="W37">
+        <f>W32*$S$31/($S$36*$T$31)</f>
+        <v>4.9972389064958689</v>
+      </c>
+    </row>
+    <row r="38" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B38" s="60">
         <v>1.65</v>
       </c>
@@ -2656,11 +2764,11 @@
         <v>1.3</v>
       </c>
       <c r="D38" s="44">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>8.8899999999999969E-3</v>
       </c>
       <c r="E38" s="44">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>12.009733090745195</v>
       </c>
       <c r="F38" s="61">
@@ -2683,8 +2791,20 @@
         <v>4.97</v>
       </c>
       <c r="O38" s="82"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="U38">
+        <f t="shared" ref="U38:W40" si="19">U33*$S$31/($S$36*$T$31)</f>
+        <v>3.1096364097500953</v>
+      </c>
+      <c r="V38">
+        <f t="shared" si="19"/>
+        <v>4.5007895404277702</v>
+      </c>
+      <c r="W38">
+        <f t="shared" si="19"/>
+        <v>6.8100887025033714</v>
+      </c>
+    </row>
+    <row r="39" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B39" s="60">
         <v>2</v>
       </c>
@@ -2692,11 +2812,11 @@
         <v>1.35</v>
       </c>
       <c r="D39" s="44">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>1.6509999999999997E-2</v>
       </c>
       <c r="E39" s="44">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>16.366507419737342</v>
       </c>
       <c r="F39" s="61">
@@ -2717,8 +2837,20 @@
         <v>5.26</v>
       </c>
       <c r="O39" s="25"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="U39">
+        <f t="shared" si="19"/>
+        <v>3.7593671052455071</v>
+      </c>
+      <c r="V39">
+        <f t="shared" si="19"/>
+        <v>5.4411892312763932</v>
+      </c>
+      <c r="W39">
+        <f t="shared" si="19"/>
+        <v>8.2329957842411243</v>
+      </c>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B40" s="60">
         <v>2.4500000000000002</v>
       </c>
@@ -2726,11 +2858,11 @@
         <v>1.5</v>
       </c>
       <c r="D40" s="44">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>2.4130000000000002E-2</v>
       </c>
       <c r="E40" s="44">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>19.786142659186879</v>
       </c>
       <c r="F40" s="61">
@@ -2747,11 +2879,11 @@
         <v>1.5</v>
       </c>
       <c r="K40" s="72">
-        <f t="shared" ref="K40" si="16">(I40-J40)*0.0254</f>
+        <f t="shared" ref="K40" si="20">(I40-J40)*0.0254</f>
         <v>2.4130000000000002E-2</v>
       </c>
       <c r="L40" s="72">
-        <f t="shared" ref="L40" si="17">((2*9.81*1000*K40)/1.2093)^0.5</f>
+        <f t="shared" ref="L40" si="21">((2*9.81*1000*K40)/1.2093)^0.5</f>
         <v>19.786142659186879</v>
       </c>
       <c r="M40" s="101">
@@ -2763,8 +2895,20 @@
       <c r="O40" s="73" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="U40">
+        <f t="shared" si="19"/>
+        <v>4.5636985744831753</v>
+      </c>
+      <c r="V40">
+        <f t="shared" si="19"/>
+        <v>6.6053531999098594</v>
+      </c>
+      <c r="W40">
+        <f t="shared" si="19"/>
+        <v>9.9944778129917395</v>
+      </c>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B41" s="60">
         <v>3</v>
       </c>
@@ -2772,11 +2916,11 @@
         <v>1.6</v>
       </c>
       <c r="D41" s="44">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>3.5559999999999994E-2</v>
       </c>
       <c r="E41" s="44">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>24.019466181490394</v>
       </c>
       <c r="F41" s="61">
@@ -2798,7 +2942,7 @@
       </c>
       <c r="O41" s="74"/>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B42" s="62">
         <v>1.65</v>
       </c>
@@ -2806,11 +2950,11 @@
         <v>1.3</v>
       </c>
       <c r="D42" s="63">
-        <f t="shared" ref="D42:D45" si="18">(B42-C42)*0.0254</f>
+        <f t="shared" ref="D42:D45" si="22">(B42-C42)*0.0254</f>
         <v>8.8899999999999969E-3</v>
       </c>
       <c r="E42" s="63">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>12.009733090745195</v>
       </c>
       <c r="F42" s="63">
@@ -2834,7 +2978,7 @@
       </c>
       <c r="O42" s="84"/>
     </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B43" s="62">
         <v>2</v>
       </c>
@@ -2842,11 +2986,11 @@
         <v>1.35</v>
       </c>
       <c r="D43" s="63">
+        <f t="shared" si="22"/>
+        <v>1.6509999999999997E-2</v>
+      </c>
+      <c r="E43" s="63">
         <f t="shared" si="18"/>
-        <v>1.6509999999999997E-2</v>
-      </c>
-      <c r="E43" s="63">
-        <f t="shared" si="15"/>
         <v>16.366507419737342</v>
       </c>
       <c r="F43" s="63">
@@ -2863,11 +3007,11 @@
         <v>1.6</v>
       </c>
       <c r="K43" s="27">
-        <f t="shared" ref="K43" si="19">(I43-J43)*0.0254</f>
+        <f t="shared" ref="K43" si="23">(I43-J43)*0.0254</f>
         <v>3.5559999999999994E-2</v>
       </c>
       <c r="L43" s="27">
-        <f t="shared" ref="L43" si="20">((2*9.81*1000*K43)/1.2093)^0.5</f>
+        <f t="shared" ref="L43" si="24">((2*9.81*1000*K43)/1.2093)^0.5</f>
         <v>24.019466181490394</v>
       </c>
       <c r="M43" s="48">
@@ -2880,7 +3024,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B44" s="62">
         <v>2.4500000000000002</v>
       </c>
@@ -2888,11 +3032,11 @@
         <v>1.5</v>
       </c>
       <c r="D44" s="63">
+        <f t="shared" si="22"/>
+        <v>2.4130000000000002E-2</v>
+      </c>
+      <c r="E44" s="63">
         <f t="shared" si="18"/>
-        <v>2.4130000000000002E-2</v>
-      </c>
-      <c r="E44" s="63">
-        <f t="shared" si="15"/>
         <v>19.786142659186879</v>
       </c>
       <c r="F44" s="63">
@@ -2914,7 +3058,7 @@
       </c>
       <c r="O44" s="28"/>
     </row>
-    <row r="45" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B45" s="64">
         <v>3</v>
       </c>
@@ -2922,11 +3066,11 @@
         <v>1.6</v>
       </c>
       <c r="D45" s="65">
+        <f t="shared" si="22"/>
+        <v>3.5559999999999994E-2</v>
+      </c>
+      <c r="E45" s="65">
         <f t="shared" si="18"/>
-        <v>3.5559999999999994E-2</v>
-      </c>
-      <c r="E45" s="65">
-        <f t="shared" si="15"/>
         <v>24.019466181490394</v>
       </c>
       <c r="F45" s="65">
